--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08614507-2E76-46A8-91C1-E2E655221785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB158807-FCA2-4A41-AC5A-E114AB0B261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,13 +209,20 @@
   </si>
   <si>
     <t>카페 24000달성 기념</t>
+  </si>
+  <si>
+    <t>카페 25000달성 기념</t>
+  </si>
+  <si>
+    <t>만능소탕권 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +237,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -254,8 +267,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,6 +1058,23 @@
       </c>
       <c r="E27" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9039</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/IosCoupon.xlsx
+++ b/Assets/06.Table/IosCoupon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB158807-FCA2-4A41-AC5A-E114AB0B261E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152C4FBB-CF53-4137-A870-A385943F615C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="IosCoupon" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,14 @@
   </si>
   <si>
     <t>만능소탕권 10개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3주년 전야제 기념 쿠폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만능소탕권 20개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +340,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +446,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +588,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1075,6 +1083,23 @@
       </c>
       <c r="E28" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9039</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
